--- a/reports/Debug-snowbowl-20251217/For The Week Ending (Actual)_Budget.xlsx
+++ b/reports/Debug-snowbowl-20251217/For The Week Ending (Actual)_Budget.xlsx
@@ -19,6 +19,108 @@
     <t>Department</t>
   </si>
   <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>99200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>99150</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>99100</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
     <t>D1000</t>
   </si>
   <si>
@@ -34,108 +136,6 @@
     <t>D6790</t>
   </si>
   <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D5113</t>
-  </si>
-  <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>99200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>99100</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>99150</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -154,6 +154,108 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>Lift Maintenance</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>Winter Season Pass Visits  - Home Resort</t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>Comp Tickets</t>
+  </si>
+  <si>
+    <t>Vehicle Maintenance</t>
+  </si>
+  <si>
+    <t>F&amp;B Admin</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
+    <t>Agassiz Retail</t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t>Daily Winter Ticketed</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>Base Camp Hotel</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
     <t>Mountain G&amp;A</t>
   </si>
   <si>
@@ -167,108 +269,6 @@
   </si>
   <si>
     <t>Transportation</t>
-  </si>
-  <si>
-    <t>Rental Repair Shop</t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
-  </si>
-  <si>
-    <t>Agassiz Retail</t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t>Janitorial</t>
-  </si>
-  <si>
-    <t>Winter Season Pass Visits  - Home Resort</t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t>Risk Management</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>IT Services</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>Daily Winter Ticketed</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>Base Camp Hotel</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Comp Tickets</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
-  </si>
-  <si>
-    <t>F&amp;B Admin</t>
-  </si>
-  <si>
-    <t>Facilities Maintenance</t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2">
-        <v>6382.04</v>
+        <v>8555.19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
@@ -679,7 +679,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>3644.05</v>
+        <v>9718.70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -687,464 +687,464 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>83168.07</v>
+        <v>2157.44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2">
-        <v>1750.42</v>
+        <v>37501.36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="2">
-        <v>3260.55</v>
+        <v>5333.32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2">
-        <v>4179.93</v>
+        <v>19142.74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>2495.00</v>
+        <v>12558.03</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2">
-        <v>5819.00</v>
+        <v>770884.00</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="2">
-        <v>7958.19</v>
+        <v>3905.51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
-        <v>56381.40</v>
+        <v>4891.47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
-        <v>2877.57</v>
+        <v>4800.00</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
-        <v>7274.82</v>
+        <v>15613.78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
-        <v>2491.85</v>
+        <v>107692.56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2">
-        <v>14474.06</v>
+        <v>1010.66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
-        <v>6773.65</v>
+        <v>975.00</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2">
-        <v>1275.12</v>
+        <v>4560.00</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
-        <v>1502.91</v>
+        <v>6395.97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="2">
-        <v>1429.14</v>
+        <v>5191.89</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>3548.94</v>
+        <v>4352.18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>9564.28</v>
+        <v>0.00</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="2">
-        <v>6490.85</v>
+        <v>5927.46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
-        <v>4800.00</v>
+        <v>3230.75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="2">
-        <v>15613.78</v>
+        <v>14474.06</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="2">
-        <v>107692.56</v>
+        <v>6773.65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="2">
-        <v>1010.66</v>
+        <v>1275.12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
-        <v>37501.36</v>
+        <v>1502.91</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="2">
-        <v>5333.32</v>
+        <v>1429.14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="2">
-        <v>19142.74</v>
+        <v>3548.94</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
-        <v>12558.03</v>
+        <v>9564.28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
-        <v>770884.00</v>
+        <v>6490.85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="2">
-        <v>3905.51</v>
+        <v>2495.00</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2">
-        <v>4891.47</v>
+        <v>5819.00</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="2">
-        <v>8555.19</v>
+        <v>7958.19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
-        <v>9718.70</v>
+        <v>56381.40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2">
-        <v>2157.44</v>
+        <v>2877.57</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1152,10 +1152,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2">
-        <v>9000.00</v>
+        <v>7274.82</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>72</v>
@@ -1169,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="2">
-        <v>45074.77</v>
+        <v>2491.85</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>73</v>
@@ -1177,86 +1177,86 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2">
-        <v>181468.00</v>
+        <v>9000.00</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
-        <v>289398.00</v>
+        <v>45074.77</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2">
-        <v>14561.95</v>
+        <v>181468.00</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>4085.08</v>
+        <v>289398.00</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2">
-        <v>19171.36</v>
+        <v>14561.95</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="2">
-        <v>3557.35</v>
+        <v>4085.08</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2">
-        <v>6115.47</v>
+        <v>19171.36</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>77</v>
@@ -1278,10 +1278,10 @@
         <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2">
-        <v>975.00</v>
+        <v>3557.35</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>78</v>
@@ -1295,7 +1295,7 @@
         <v>41</v>
       </c>
       <c r="C47" s="2">
-        <v>4560.00</v>
+        <v>6115.47</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>79</v>
@@ -1309,7 +1309,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="2">
-        <v>6395.97</v>
+        <v>6382.04</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>80</v>
@@ -1323,7 +1323,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="2">
-        <v>5191.89</v>
+        <v>3644.05</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>81</v>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2">
-        <v>4352.18</v>
+        <v>83168.07</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1348,10 +1348,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2">
-        <v>0.00</v>
+        <v>1750.42</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>82</v>
@@ -1365,7 +1365,7 @@
         <v>41</v>
       </c>
       <c r="C52" s="2">
-        <v>5927.46</v>
+        <v>3260.55</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>83</v>
@@ -1379,7 +1379,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="2">
-        <v>3230.75</v>
+        <v>4179.93</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>84</v>
